--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_极光组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version3.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -252,6 +252,50 @@
   </si>
   <si>
     <t>韩美娟、崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉、施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成买回单的时候，关闭这笔贷款的蘑菇宝相关的账单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -926,28 +970,30 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18" style="19" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="19" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="19" customWidth="1"/>
-    <col min="11" max="12" width="11.875" style="19" customWidth="1"/>
-    <col min="13" max="13" width="9" style="20"/>
-    <col min="14" max="14" width="11.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="23" customWidth="1"/>
-    <col min="17" max="18" width="17.625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="48.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="20" customWidth="1"/>
+    <col min="14" max="14" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="23" customWidth="1"/>
+    <col min="17" max="17" width="17" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.75" style="20" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
@@ -1043,10 +1089,18 @@
       <c r="K2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
@@ -1087,13 +1141,23 @@
       <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="R3" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
@@ -1129,13 +1193,23 @@
       <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="R4" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
@@ -1171,13 +1245,23 @@
       <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+      <c r="R5" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
@@ -1213,13 +1297,23 @@
       <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="R6" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
@@ -1255,13 +1349,23 @@
       <c r="K7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="L7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="R7" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
@@ -1297,17 +1401,27 @@
       <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="L8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1339,13 +1453,23 @@
       <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="L9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="R9" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
@@ -1381,13 +1505,23 @@
       <c r="K10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="L10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="R10" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
@@ -1423,13 +1557,23 @@
       <c r="K11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="L11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="R11" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
@@ -1465,13 +1609,23 @@
       <c r="K12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="L12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="R12" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
@@ -1507,13 +1661,23 @@
       <c r="K13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="L13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="R13" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
@@ -1549,13 +1713,23 @@
       <c r="K14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="L14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="R14" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
@@ -1591,35 +1765,71 @@
       <c r="K15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="L15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="R15" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42478</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="13">
+        <v>42478</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="J16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
+      <c r="N16" s="13">
+        <v>42480</v>
+      </c>
       <c r="O16" s="14"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="R16" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
